--- a/biology/Botanique/Cryptocarya_sheikelmudiyana/Cryptocarya_sheikelmudiyana.xlsx
+++ b/biology/Botanique/Cryptocarya_sheikelmudiyana/Cryptocarya_sheikelmudiyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptocara sheikelmudiyana est une espèce de plantes (un arbre plus précisément) de la famille des Lauraceae. Elle est originaire d'Inde. Cette espèce a été décrite pour la première fois en l'an 2020.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce vient de la localité de Sheikelmudi, là où cette espèce d'arbre a été découverte. Sheikelmudi est un nom d'origine Kadar, "Shekel" signifiant "Sacré" et "Mudi" signifiant "Sommet de la montagne"[2]. "Sheikelmudi" veut donc dire "Sommet sacré de la montagne".
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce vient de la localité de Sheikelmudi, là où cette espèce d'arbre a été découverte. Sheikelmudi est un nom d'origine Kadar, "Shekel" signifiant "Sacré" et "Mudi" signifiant "Sommet de la montagne". "Sheikelmudi" veut donc dire "Sommet sacré de la montagne".
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptocarya sheikelmudiyana est un arbre pouvant atteindre 25 à 35 mètres de haut.
 Les feuilles sont simples, alternes, verdâtres, de forme elliptique à oblongue, à apex aigüe à apiculée, mesurant entre 8 et 20 cm de longueur pour 3 à 9 cm de largeur et elles sont constituées de 7 à 8 paires de nervures secondaires. Le pétiole mesure entre 1 et 1,5 cm de long.
 Les fleurs sont bisexuelles, de couleur jaune crème, mesurant 4 mm de long sur 2,5 mm de large et pubescentes.
-Les fruits sont oblongs, non lenticellés et striés longitudinalement avec une constriction en dessous du milieu des fruits[3].
+Les fruits sont oblongs, non lenticellés et striés longitudinalement avec une constriction en dessous du milieu des fruits.
 La floraison et la fructification se déroulent de septembre à avril.
 </t>
         </is>
@@ -577,9 +593,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptocarya sheikelmudiyana a été découverte en Inde, plus précisément dans le sud des Ghats occidentaux au Kerala, à environ 1100 mètres d'altitude[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptocarya sheikelmudiyana a été découverte en Inde, plus précisément dans le sud des Ghats occidentaux au Kerala, à environ 1100 mètres d'altitude.
 Au total, 13 arbres de cette espèce ont été trouvés, 12 à Skeikelmudi et 1 à Malakkappara.
 Cette espèce d'arbres vit dans les collines et plus spécifiquement dans les forêts sempervirentes humides.
 </t>
